--- a/team_folder/newFolder/What we need.xlsx
+++ b/team_folder/newFolder/What we need.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PCB" sheetId="1" r:id="rId1"/>
-    <sheet name="Python GUI" sheetId="2" r:id="rId2"/>
-    <sheet name="Encoders" sheetId="7" r:id="rId3"/>
-    <sheet name="PWM" sheetId="3" r:id="rId4"/>
-    <sheet name="Linux" sheetId="4" r:id="rId5"/>
-    <sheet name="Ultrasonic sensors" sheetId="5" r:id="rId6"/>
-    <sheet name="Cameras" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="PCB" sheetId="1" r:id="rId2"/>
+    <sheet name="Python GUI" sheetId="2" r:id="rId3"/>
+    <sheet name="Encoders" sheetId="7" r:id="rId4"/>
+    <sheet name="PWM" sheetId="3" r:id="rId5"/>
+    <sheet name="Linux" sheetId="4" r:id="rId6"/>
+    <sheet name="Ultrasonic sensors" sheetId="5" r:id="rId7"/>
+    <sheet name="Cameras" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Lead</t>
   </si>
@@ -69,9 +70,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>PWM</t>
-  </si>
-  <si>
     <t>How will the PCB help us?</t>
   </si>
   <si>
@@ -96,15 +94,9 @@
     <t>ultrasonic sensors</t>
   </si>
   <si>
-    <t>encoders</t>
-  </si>
-  <si>
     <t>Maybe IP cameras later?</t>
   </si>
   <si>
-    <t>Need to complete Lab 2</t>
-  </si>
-  <si>
     <t>Need to put on snickerdoodle to run motors</t>
   </si>
   <si>
@@ -114,24 +106,12 @@
     <t>1 PWM per side?</t>
   </si>
   <si>
-    <t>1 PWM per motor?</t>
-  </si>
-  <si>
-    <t>How will this Rover move?</t>
-  </si>
-  <si>
     <t>Can wheels rotate backwards?</t>
   </si>
   <si>
-    <t>How do we turn?</t>
-  </si>
-  <si>
     <t>Do we want a hard start/stop or soft?</t>
   </si>
   <si>
-    <t>Do we want to always start &amp; end @ zero?</t>
-  </si>
-  <si>
     <t>We will wait till a Lab</t>
   </si>
   <si>
@@ -141,12 +121,6 @@
     <t>What are req?</t>
   </si>
   <si>
-    <t>What are the angles it can sense?</t>
-  </si>
-  <si>
-    <t>15 degrees?</t>
-  </si>
-  <si>
     <t>How will it treat each scenario</t>
   </si>
   <si>
@@ -169,6 +143,108 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Just like Lab 1, we need a rover moving by a 1x1 space.</t>
+  </si>
+  <si>
+    <t>We need a map to be recreate own known maps</t>
+  </si>
+  <si>
+    <t>We need a map to recognize walls and then have it map</t>
+  </si>
+  <si>
+    <t>Find a way to recalibrate position</t>
+  </si>
+  <si>
+    <t>Reset permeter</t>
+  </si>
+  <si>
+    <t>Remember previous permeters</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>HC - SR04</t>
+  </si>
+  <si>
+    <t>Working Voltage</t>
+  </si>
+  <si>
+    <t>5V DC</t>
+  </si>
+  <si>
+    <t>Working Current</t>
+  </si>
+  <si>
+    <t>15mA</t>
+  </si>
+  <si>
+    <t>Measuring Angle</t>
+  </si>
+  <si>
+    <t>15 deg</t>
+  </si>
+  <si>
+    <t>Test distance = (high level time×velocity of sound (340M/S) / 2</t>
+  </si>
+  <si>
+    <t>Wire connecting direct as following:</t>
+  </si>
+  <si>
+    <t>_x0001_ 5V Supply</t>
+  </si>
+  <si>
+    <t>_x0001_ Trigger Pulse Input</t>
+  </si>
+  <si>
+    <t>_x0001_ Echo Pulse Output</t>
+  </si>
+  <si>
+    <t>_x0001_ 0V Ground</t>
+  </si>
+  <si>
+    <t>Max Range</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Range </t>
+  </si>
+  <si>
+    <t>2cm</t>
+  </si>
+  <si>
+    <t>maybe Camera</t>
+  </si>
+  <si>
+    <t>1 for power</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>v?</t>
+  </si>
+  <si>
+    <t>I?</t>
+  </si>
+  <si>
+    <t>3 LED</t>
+  </si>
+  <si>
+    <t>2 for Motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to complete Lab </t>
+  </si>
+  <si>
+    <t>Maybe - Do we want to always start &amp; end @ zero?</t>
+  </si>
+  <si>
+    <t>How will this Rover turn?</t>
   </si>
 </sst>
 </file>
@@ -495,66 +571,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,57 +677,67 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -622,13 +746,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,16 +761,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -654,13 +793,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,61 +808,51 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -731,13 +860,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,13 +875,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -760,236 +889,304 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -998,31 +1195,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
